--- a/Achats/Achats.xlsx
+++ b/Achats/Achats.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/01c31a1cfc8e0b17/HEIG-VD/Travail de bachelor/Achats/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/01c31a1cfc8e0b17/HEIG-VD/Travail de bachelor/AutonomousRcCar/Achats/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="67" documentId="11_AD4D9D64A577C15A4A5418EA005E64325ADEDD8A" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E95E01A7-B0E4-42D7-9728-FC92F49A91E0}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="8_{675BB27F-754A-453E-9BE6-09F2660913BA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{FDE33042-6996-4351-818A-A1F027B3CE69}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,16 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
-  <si>
-    <t>Raspberry Pi 4 4G Model B</t>
-  </si>
-  <si>
-    <t>Joy-it Armor Case Block Active für Raspberry Pi 4</t>
-  </si>
-  <si>
-    <t>Sandisk ExtremePro microSD A2 (64Go, Classe 10, UHSI)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>Description</t>
   </si>
@@ -69,9 +60,6 @@
     <t>Prix</t>
   </si>
   <si>
-    <t xml:space="preserve"> HDMI - micro HDMI</t>
-  </si>
-  <si>
     <t>Technic_Hobby_Lausanne_Voiture.pdf</t>
   </si>
   <si>
@@ -85,6 +73,22 @@
   </si>
   <si>
     <t>TOTAL</t>
+  </si>
+  <si>
+    <t>Pi-Shop_100031161.pdf</t>
+  </si>
+  <si>
+    <t>Raspberry Pi 4 4G Model B
+Joy-it Armor Case Block Active für Raspberry Pi 4
+Sandisk ExtremePro microSD A2 (64Go, Classe 10, UHSI)</t>
+  </si>
+  <si>
+    <t>HDMI - micro HDMI</t>
+  </si>
+  <si>
+    <t>Pi-Supply - PiJuice (batterie Raspberry)
+Raspberry Pi Camera, Fisheye Lens
+Cable caméra</t>
   </si>
 </sst>
 </file>
@@ -138,7 +142,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -151,6 +155,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -158,10 +165,10 @@
   </cellStyles>
   <dxfs count="3">
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -180,13 +187,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BD813E8A-97CE-45D2-9634-A44F5501EEBA}" name="Tableau1" displayName="Tableau1" ref="A1:D7" totalsRowShown="0">
-  <autoFilter ref="A1:D7" xr:uid="{6837A5D8-6F68-4A87-9246-65B7D779BE54}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BD813E8A-97CE-45D2-9634-A44F5501EEBA}" name="Tableau1" displayName="Tableau1" ref="A1:D6" totalsRowShown="0">
+  <autoFilter ref="A1:D6" xr:uid="{6837A5D8-6F68-4A87-9246-65B7D779BE54}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{D169BF40-4AF5-4855-A829-B9F4845494D9}" name="Description"/>
     <tableColumn id="2" xr3:uid="{755F3232-FB0D-47E8-834A-3474B669FB06}" name="Fournisseur" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{8A3F21D6-E241-4516-BD13-0FF8493020FF}" name="Facture" dataDxfId="0"/>
-    <tableColumn id="4" xr3:uid="{12385411-A613-4D34-B1F2-FA8EE2DA1454}" name="Prix" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{8A3F21D6-E241-4516-BD13-0FF8493020FF}" name="Facture" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{12385411-A613-4D34-B1F2-FA8EE2DA1454}" name="Prix" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -455,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -470,121 +477,104 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
-        <v>7</v>
-      </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1">
         <v>279</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>0</v>
+    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D3" s="1">
-        <v>61</v>
+        <v>115.4</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D4" s="1">
-        <v>26</v>
+        <v>92.8</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D5" s="1">
-        <v>28.4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>10</v>
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="1">
-        <v>92.8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="1">
-        <v>8.9</v>
+        <v>111.6</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D8" s="1"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="5">
-        <f>SUM(D2:D8)</f>
-        <v>496.09999999999997</v>
+      <c r="C8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="5">
+        <f>SUM(D2:D6)</f>
+        <v>607.69999999999993</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{66C3577E-0226-4476-8533-01873E1DF10E}"/>
-    <hyperlink ref="C6" r:id="rId2" xr:uid="{5BFE1B43-8B98-49B8-99C9-0E11CB7FFDF2}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{5BFE1B43-8B98-49B8-99C9-0E11CB7FFDF2}"/>
     <hyperlink ref="C3" r:id="rId3" xr:uid="{B4A1BC7B-A436-4BEE-810F-EB2D89EBB9A5}"/>
-    <hyperlink ref="C4:C5" r:id="rId4" display="Digitec_27003639.pdf" xr:uid="{8523E7D1-12D3-47F8-8DF5-7B35973ED785}"/>
-    <hyperlink ref="C7" r:id="rId5" xr:uid="{F8398240-DAE9-443D-9236-86B3DA1A1C4D}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{F8398240-DAE9-443D-9236-86B3DA1A1C4D}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{D6656867-DE39-4F72-87B8-DF1818C96C1B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId6"/>

--- a/Achats/Achats.xlsx
+++ b/Achats/Achats.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/01c31a1cfc8e0b17/HEIG-VD/Travail de bachelor/AutonomousRcCar/Achats/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxim\OneDrive\HEIG-VD\Travail de bachelor\AutonomousRcCar\Achats\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="15" documentId="8_{675BB27F-754A-453E-9BE6-09F2660913BA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{FDE33042-6996-4351-818A-A1F027B3CE69}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-240" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -465,7 +465,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
